--- a/rice/Dwadashi khichdi.xlsx
+++ b/rice/Dwadashi khichdi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit_temp\Google Drive\recipies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\rice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8C418C-3D9B-4297-956B-4E1C8748B7E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBEB101-F546-41C9-A55D-A4FEACF021BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DFE81662-6701-48B9-8D57-732A39ACC14F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DFE81662-6701-48B9-8D57-732A39ACC14F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -497,353 +499,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7BBDD6-F15F-476C-9F73-A72259B82B87}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" customWidth="1"/>
-    <col min="11" max="11" width="33.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="C1" s="2">
-        <f>B1/2</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>0.35</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C13" si="0">B2/2</f>
+        <f>B2/2</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C14" si="0">B3/2</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <f>H2/2</f>
+      <c r="B7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
         <v>0.5</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <f>B16/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2">
+      <c r="B17" s="2">
         <v>1.25</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I10" si="1">H3/2</f>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:C24" si="1">B17/2</f>
         <v>0.625</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2">
+      <c r="B18" s="2">
         <v>0.5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="I5" s="2">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2">
+      <c r="B22" s="2">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
+    <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
         <v>0.25</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+    <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="2">
+      <c r="B24" s="2">
         <v>1.5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -859,7 +876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rice/Dwadashi khichdi.xlsx
+++ b/rice/Dwadashi khichdi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\rice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBEB101-F546-41C9-A55D-A4FEACF021BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515140CA-533D-4270-A429-5A7A1FC38CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DFE81662-6701-48B9-8D57-732A39ACC14F}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
